--- a/DB Sheet.xlsx
+++ b/DB Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="171">
   <si>
     <t>CompanyId</t>
   </si>
@@ -535,6 +535,9 @@
   </si>
   <si>
     <t>rdppassword</t>
+  </si>
+  <si>
+    <t>dfdf</t>
   </si>
 </sst>
 </file>
@@ -2117,7 +2120,7 @@
   <dimension ref="A2:Q115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,6 +2178,9 @@
       <c r="D5" s="112" t="s">
         <v>22</v>
       </c>
+      <c r="G5" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="111" t="s">

--- a/DB Sheet.xlsx
+++ b/DB Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="170">
   <si>
     <t>CompanyId</t>
   </si>
@@ -535,9 +535,6 @@
   </si>
   <si>
     <t>rdppassword</t>
-  </si>
-  <si>
-    <t>dfdf</t>
   </si>
 </sst>
 </file>
@@ -2178,9 +2175,6 @@
       <c r="D5" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="111" t="s">
